--- a/lua_env_upvalue.xlsx
+++ b/lua_env_upvalue.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="env upvalue" sheetId="1" r:id="rId1"/>
+    <sheet name="metatable" sheetId="2" r:id="rId2"/>
+    <sheet name="lua init" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>lua5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +264,152 @@
   </si>
   <si>
     <t>获取当前函数的ENV,从中查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建原表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个table:metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metatable.__name = tname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luaL_newmetatable (lua_State *L, const char *tname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到注册表中registry.name = metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_setmetatable (lua_State *L, int objindex)</t>
+  </si>
+  <si>
+    <t>设置原表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取objindex位置的obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是table或userdata类型，则uvalue(obj)-&gt;metatable = mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则G(L)-&gt;mt[ttnov(obj)] = mt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置基础类型的mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_gettable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_settable</t>
+  </si>
+  <si>
+    <t>设置table会触发原表访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问table会触发原表访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_newstate</t>
+  </si>
+  <si>
+    <t>sethvalue(L, gt(L), luaH_new(L, 0, 2));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sethvalue(L, registry(L), luaH_new(L, 0, 2)); </t>
+  </si>
+  <si>
+    <t>初始化全局表-存在于Lua_State里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化注册表-存在于global_State里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局表和注册表独立，存在不同的对象里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_registry</t>
+  </si>
+  <si>
+    <t>Table *registry = luaH_new(L);</t>
+  </si>
+  <si>
+    <t>sethvalue(L, &amp;g-&gt;l_registry, registry);</t>
+  </si>
+  <si>
+    <t>luaH_resize(L, registry, LUA_RIDX_LAST, 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sethvalue(L, &amp;temp, luaH_new(L)); </t>
+  </si>
+  <si>
+    <t>赋值为global_State里面的注册表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整注册表大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luaH_setint(L, registry, LUA_RIDX_GLOBALS, &amp;temp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个新表--注册表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一张表--全局表_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值给_G,也就是注册表下表为2的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局的变量都在_G中，一般和ENV挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动增加，例如原表都在注册表里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑脚本里会尽可能的污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量不要污染，非逻辑的东西，不是开发者能用到的可以放着，不然回冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,6 +518,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,4 +1153,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="71.125" customWidth="1"/>
+    <col min="4" max="14" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="5" max="17" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lua_env_upvalue.xlsx
+++ b/lua_env_upvalue.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="env upvalue" sheetId="1" r:id="rId1"/>
     <sheet name="metatable" sheetId="2" r:id="rId2"/>
     <sheet name="lua init" sheetId="3" r:id="rId3"/>
+    <sheet name="require" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>lua5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +411,129 @@
   </si>
   <si>
     <t>尽量不要污染，非逻辑的东西，不是开发者能用到的可以放着，不然回冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package[loaders]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package[searchers]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字叫loaders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字叫searchers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以自己实现lua_Cfunction的加载函数，实现文件加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cocos2dx_lua_loader(lua_State *L)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::string filename(luaL_checkstring(L, 1));</t>
+  </si>
+  <si>
+    <t>回调函数的第一个参数就是加载的文件名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数里面加载出对应文件的整个buffer，然后调用luaL_loadbuffer加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的c接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luaL_loadbuffer</t>
+  </si>
+  <si>
+    <t>luaL_loadfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部就是一块一块的读取文件内容，然后逐个解析（词法分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!这部分是否可以进行优化呢？!!!!!!!!!(提高加载速度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以自由添加加载函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的函数createsearcherstable，在初始化的时候，在searchers添加了默认的几个加载函数:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static const lua_CFunction searchers[] =</t>
+  </si>
+  <si>
+    <t>{searcher_preload, searcher_Lua, searcher_C, searcher_Croot, NULL};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了我们啥都不干就能自动在LUA里面require文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registertable["LOADED"]表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用文件名字判断是否已经加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认加载在luaopen_package里面设置，添加了默认的几个加载函数:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static const lua_CFunction loaders[] =</t>
+  </si>
+  <si>
+    <t>{loader_preload, loader_Lua, loader_C, loader_Croot, NULL};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +570,22 @@
       <color rgb="FF4F4F4F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -504,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -519,6 +659,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1252,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -1394,4 +1542,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C38" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lua_env_upvalue.xlsx
+++ b/lua_env_upvalue.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="env upvalue" sheetId="1" r:id="rId1"/>
     <sheet name="metatable" sheetId="2" r:id="rId2"/>
     <sheet name="lua init" sheetId="3" r:id="rId3"/>
     <sheet name="require" sheetId="4" r:id="rId4"/>
+    <sheet name="debug" sheetId="5" r:id="rId5"/>
+    <sheet name="closure" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
   <si>
     <t>lua5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +536,173 @@
   </si>
   <si>
     <t>{loader_preload, loader_Lua, loader_C, loader_Croot, NULL};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define LUA_HOOKCALL</t>
+  </si>
+  <si>
+    <t>#define LUA_HOOKLINE</t>
+  </si>
+  <si>
+    <t>#define LUA_HOOKCOUNT</t>
+  </si>
+  <si>
+    <t>#define LUA_HOOKTAILCALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用HOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数返回HOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行一行HOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种执行事件回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUAI_FUNC void luaD_hook (lua_State *L, int event, int line);</t>
+  </si>
+  <si>
+    <t>函数回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C闭包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-light闭包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应CALL和RET的HOOK，分为3中情况，1是C闭包  2是c-light闭包  3是LUA闭包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA闭包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define LUA_HOOKRET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常调用的时候，准备CI就算进入了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luaD_precall (lua_State *L, StkId func, int nresults)</t>
+  </si>
+  <si>
+    <t>luaD_hook(L, LUA_HOOKCALL, -1);</t>
+  </si>
+  <si>
+    <t>luaD_poscall(L, ci, L-&gt;top - n, n);</t>
+  </si>
+  <si>
+    <t>n = (*f)(L);  /* do the actual call */</t>
+  </si>
+  <si>
+    <t>函数调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行字节码，在执行OP_RETURN的时候，调用LUA_HOOKRET回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行字节码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA_API void lua_pushcclosure (lua_State *L, lua_CFunction fn, int n) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lua_lock(L);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (n == 0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setfvalue(L-&gt;top, fn);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    api_incr_top(L);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CClosure *cl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    api_checknelems(L, n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    api_check(L, n &lt;= MAXUPVAL, "upvalue index too large");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cl = luaF_newCclosure(L, n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cl-&gt;f = fn;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L-&gt;top -= n;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while (n--) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      setobj2n(L, &amp;cl-&gt;upvalue[n], L-&gt;top + n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      /* does not need barrier because closure is white */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setclCvalue(L, L-&gt;top, cl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    luaC_checkGC(L);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lua_unlock(L);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>light c closure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c closure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +750,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -644,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,6 +844,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1548,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1735,4 +1913,370 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="J8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>